--- a/CODICE/2_feature_selection/results_fs_STANDARDIZED.xlsx
+++ b/CODICE/2_feature_selection/results_fs_STANDARDIZED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fra/Desktop/GH_TEHSIS/CODICE/2_feature_selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D55535AF-6769-874C-82A5-5CD713E5C90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{60FB4608-5B66-9A43-ACFA-D7E8E81084D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17900" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results_fs_STANDARDIZED" sheetId="1" r:id="rId1"/>
@@ -1136,7 +1136,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1150,8 +1150,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1271,20 +1270,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1594,7 +1580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N74"/>
+  <dimension ref="B1:N74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
@@ -1608,9 +1594,7 @@
     <col min="9" max="9" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
+    <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1618,28 +1602,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12" t="s">
+    <row r="2" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>78</v>
       </c>
       <c r="M2" s="1">
@@ -1649,33 +1632,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="17">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10">
-        <v>1</v>
-      </c>
-      <c r="H3" s="14">
-        <v>1</v>
-      </c>
-      <c r="I3" s="19">
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="18">
         <f t="shared" ref="I3:I34" si="0">SUM(C3:H3)</f>
         <v>6</v>
       </c>
-      <c r="J3" s="16"/>
+      <c r="J3" s="15"/>
       <c r="M3" s="1">
         <v>1</v>
       </c>
@@ -1683,29 +1666,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="18">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9">
-        <v>1</v>
-      </c>
-      <c r="H4" s="15">
-        <v>1</v>
-      </c>
-      <c r="I4" s="20">
+      <c r="C4" s="17">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14">
+        <v>1</v>
+      </c>
+      <c r="I4" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1716,29 +1699,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="18">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
-      <c r="H5" s="15">
-        <v>1</v>
-      </c>
-      <c r="I5" s="20">
+      <c r="C5" s="17">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1749,29 +1732,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="24" t="s">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="18">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-      <c r="H6" s="15">
-        <v>1</v>
-      </c>
-      <c r="I6" s="20">
+      <c r="C6" s="17">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1</v>
+      </c>
+      <c r="I6" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1782,29 +1765,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="24" t="s">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="18">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
-        <v>1</v>
-      </c>
-      <c r="I7" s="20">
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1815,29 +1798,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="24" t="s">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="18">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1</v>
-      </c>
-      <c r="H8" s="15">
-        <v>1</v>
-      </c>
-      <c r="I8" s="20">
+      <c r="C8" s="17">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1</v>
+      </c>
+      <c r="I8" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1848,29 +1831,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="31" t="s">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="32">
-        <v>0</v>
-      </c>
-      <c r="D9" s="33">
-        <v>0</v>
-      </c>
-      <c r="E9" s="33">
-        <v>1</v>
-      </c>
-      <c r="F9" s="33">
-        <v>1</v>
-      </c>
-      <c r="G9" s="33">
-        <v>0</v>
-      </c>
-      <c r="H9" s="34">
-        <v>1</v>
-      </c>
-      <c r="I9" s="36">
+      <c r="C9" s="31">
+        <v>0</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0</v>
+      </c>
+      <c r="E9" s="32">
+        <v>1</v>
+      </c>
+      <c r="F9" s="32">
+        <v>1</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0</v>
+      </c>
+      <c r="H9" s="33">
+        <v>1</v>
+      </c>
+      <c r="I9" s="35">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1881,29 +1864,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="17">
-        <v>1</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-      <c r="I10" s="35">
+      <c r="C10" s="16">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="34">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1914,29 +1897,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="18">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="15">
-        <v>0</v>
-      </c>
-      <c r="I11" s="21">
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1947,29 +1930,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="s">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="18">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15">
-        <v>1</v>
-      </c>
-      <c r="I12" s="21">
+      <c r="C12" s="17">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1980,33 +1963,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="18">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0</v>
-      </c>
-      <c r="I13" s="21">
+      <c r="C13" s="17">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="J13" s="7"/>
       <c r="M13" s="1">
         <v>0</v>
       </c>
@@ -2014,33 +1997,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="18">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="15">
-        <v>0</v>
-      </c>
-      <c r="I14" s="21">
+      <c r="C14" s="17">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="7"/>
       <c r="M14" s="1">
         <v>0</v>
       </c>
@@ -2048,29 +2031,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="18">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="21">
+      <c r="C15" s="17">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0</v>
+      </c>
+      <c r="I15" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2081,33 +2064,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
+    <row r="16" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="18">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
-        <v>1</v>
-      </c>
-      <c r="I16" s="21">
+      <c r="C16" s="17">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <v>1</v>
+      </c>
+      <c r="I16" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="7"/>
       <c r="M16" s="2">
         <v>0</v>
       </c>
@@ -2115,29 +2098,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="25" t="s">
+    <row r="17" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="26">
-        <v>0</v>
-      </c>
-      <c r="D17" s="27">
-        <v>0</v>
-      </c>
-      <c r="E17" s="27">
-        <v>0</v>
-      </c>
-      <c r="F17" s="27">
-        <v>0</v>
-      </c>
-      <c r="G17" s="27">
-        <v>0</v>
-      </c>
-      <c r="H17" s="28">
-        <v>1</v>
-      </c>
-      <c r="I17" s="22">
+      <c r="C17" s="25">
+        <v>0</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0</v>
+      </c>
+      <c r="E17" s="26">
+        <v>0</v>
+      </c>
+      <c r="F17" s="26">
+        <v>0</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0</v>
+      </c>
+      <c r="H17" s="27">
+        <v>1</v>
+      </c>
+      <c r="I17" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2148,9 +2131,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="29" t="s">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="1">
@@ -2182,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -2215,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -2248,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -2281,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>22</v>
       </c>
@@ -2314,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>24</v>
       </c>
@@ -2347,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>25</v>
       </c>
@@ -2380,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>26</v>
       </c>
@@ -2413,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>27</v>
       </c>
@@ -2446,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>28</v>
       </c>
@@ -2479,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>29</v>
       </c>
@@ -2512,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>31</v>
       </c>
@@ -2545,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>32</v>
       </c>
@@ -2578,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>33</v>
       </c>
@@ -2611,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>35</v>
       </c>
@@ -3789,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="1">
-        <f>SUM(C67:H67)</f>
+        <f t="shared" ref="I67:I74" si="2">SUM(C67:H67)</f>
         <v>0</v>
       </c>
       <c r="M67" s="1">
@@ -3822,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="1">
-        <f>SUM(C68:H68)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M68" s="1">
@@ -3855,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="1">
-        <f>SUM(C69:H69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M69" s="1">
@@ -3888,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="1">
-        <f>SUM(C70:H70)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M70" s="1">
@@ -3921,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="1">
-        <f>SUM(C71:H71)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M71" s="1">
@@ -3954,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="1">
-        <f>SUM(C72:H72)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M72" s="1">
@@ -3987,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="1">
-        <f>SUM(C73:H73)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M73" s="1">
@@ -4020,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="1">
-        <f>SUM(C74:H74)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
